--- a/input/250814 PGE ELEC.xlsx
+++ b/input/250814 PGE ELEC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ischillebeeckx/Development/solar/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5B8D14-0488-164C-85BB-A01127C0D6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3381FE40-A0F0-E047-8179-740FF86A8B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="1680" windowWidth="28040" windowHeight="17440" xr2:uid="{A139BDA7-A2A3-7F40-A000-56EA449E5B35}"/>
   </bookViews>
@@ -938,7 +938,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,27 +989,27 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>0.35+15/31/24</f>
+        <f>0.35+$B$29/$B$32/24</f>
         <v>0.37016129032258061</v>
       </c>
       <c r="C2">
-        <f>0.35+15/28/24</f>
+        <f>0.35+$B$29/$B$30/24</f>
         <v>0.37232142857142853</v>
       </c>
       <c r="D2">
-        <f>0.35+15/31/24</f>
+        <f>0.35+$B$29/$B$32/24</f>
         <v>0.37016129032258061</v>
       </c>
       <c r="E2">
-        <f>0.35+15/30/24</f>
+        <f>0.35+$B$29/$B$31/24</f>
         <v>0.37083333333333329</v>
       </c>
       <c r="F2">
-        <f>0.35+15/31/24</f>
+        <f>0.35+$B$29/$B$32/24</f>
         <v>0.37016129032258061</v>
       </c>
       <c r="G2">
-        <f>0.4+15/30/24</f>
+        <f>0.4+$B$29/$B$31/24</f>
         <v>0.42083333333333334</v>
       </c>
       <c r="H2">
@@ -1021,19 +1021,19 @@
         <v>0.42016129032258065</v>
       </c>
       <c r="J2">
-        <f>0.4+15/30/24</f>
+        <f>0.4+$B$29/$B$31/24</f>
         <v>0.42083333333333334</v>
       </c>
       <c r="K2">
-        <f>0.35+15/31/24</f>
+        <f>0.35+$B$29/$B$32/24</f>
         <v>0.37016129032258061</v>
       </c>
       <c r="L2">
-        <f>0.35+15/30/24</f>
+        <f>0.35+$B$29/$B$31/24</f>
         <v>0.37083333333333329</v>
       </c>
       <c r="M2">
-        <f>0.35+15/31/24</f>
+        <f>0.35+$B$29/$B$32/24</f>
         <v>0.37016129032258061</v>
       </c>
     </row>
@@ -1042,11 +1042,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:F16" si="0">0.35+15/31/24</f>
+        <f t="shared" ref="B3:F16" si="0">0.35+$B$29/$B$32/24</f>
         <v>0.37016129032258061</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C16" si="1">0.35+15/28/24</f>
+        <f t="shared" ref="C3:C16" si="1">0.35+$B$29/$B$30/24</f>
         <v>0.37232142857142853</v>
       </c>
       <c r="D3">
@@ -1054,7 +1054,7 @@
         <v>0.37016129032258061</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E16" si="2">0.35+15/30/24</f>
+        <f t="shared" ref="E3:E16" si="2">0.35+$B$29/$B$31/24</f>
         <v>0.37083333333333329</v>
       </c>
       <c r="F3">
@@ -1062,7 +1062,7 @@
         <v>0.37016129032258061</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="3">0.4+15/30/24</f>
+        <f t="shared" ref="G3:G16" si="3">0.4+$B$29/$B$31/24</f>
         <v>0.42083333333333334</v>
       </c>
       <c r="H3">
@@ -1074,19 +1074,19 @@
         <v>0.42016129032258065</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J16" si="5">0.4+15/30/24</f>
+        <f t="shared" ref="J3:J16" si="5">0.4+$B$29/$B$31/24</f>
         <v>0.42083333333333334</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K16" si="6">0.35+15/31/24</f>
+        <f t="shared" ref="K3:K16" si="6">0.35+$B$29/$B$32/24</f>
         <v>0.37016129032258061</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L16" si="7">0.35+15/30/24</f>
+        <f t="shared" ref="L3:L16" si="7">0.35+$B$29/$B$31/24</f>
         <v>0.37083333333333329</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M16" si="8">0.35+15/31/24</f>
+        <f t="shared" ref="M3:M16" si="8">0.35+$B$29/$B$32/24</f>
         <v>0.37016129032258061</v>
       </c>
     </row>
@@ -1784,27 +1784,27 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="C17">
-        <f>0.36+15/28/24</f>
+        <f>0.36+$B$29/$B$30/24</f>
         <v>0.38232142857142853</v>
       </c>
       <c r="D17">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="E17">
-        <f>0.36+15/30/24</f>
+        <f>0.36+$B$29/$B$31/24</f>
         <v>0.3808333333333333</v>
       </c>
       <c r="F17">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="G17">
-        <f>0.45+15/30/24</f>
+        <f>0.45+$B$29/$B$31/24</f>
         <v>0.47083333333333333</v>
       </c>
       <c r="H17">
@@ -1816,19 +1816,19 @@
         <v>0.47016129032258064</v>
       </c>
       <c r="J17">
-        <f>0.45+15/30/24</f>
+        <f>0.45+$B$29/$B$31/24</f>
         <v>0.47083333333333333</v>
       </c>
       <c r="K17">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="L17">
-        <f>0.36+15/30/24</f>
+        <f>0.36+$B$29/$B$31/24</f>
         <v>0.3808333333333333</v>
       </c>
       <c r="M17">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
     </row>
@@ -1837,27 +1837,27 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f>0.38+15/31/24</f>
+        <f>0.38+$B$29/$B$32/24</f>
         <v>0.40016129032258063</v>
       </c>
       <c r="C18">
-        <f>0.38+15/28/24</f>
+        <f>0.38+$B$29/$B$30/24</f>
         <v>0.40232142857142855</v>
       </c>
       <c r="D18">
-        <f>0.38+15/31/24</f>
+        <f>0.38+$B$29/$B$32/24</f>
         <v>0.40016129032258063</v>
       </c>
       <c r="E18">
-        <f>0.38+15/30/24</f>
+        <f>0.38+$B$29/$B$31/24</f>
         <v>0.40083333333333332</v>
       </c>
       <c r="F18">
-        <f>0.38+15/31/24</f>
+        <f>0.38+$B$29/$B$32/24</f>
         <v>0.40016129032258063</v>
       </c>
       <c r="G18">
-        <f>0.61+15/30/24</f>
+        <f>0.61+$B$29/$B$31/24</f>
         <v>0.63083333333333336</v>
       </c>
       <c r="H18">
@@ -1869,19 +1869,19 @@
         <v>0.63016129032258061</v>
       </c>
       <c r="J18">
-        <f>0.61+15/30/24</f>
+        <f>0.61+$B$29/$B$31/24</f>
         <v>0.63083333333333336</v>
       </c>
       <c r="K18">
-        <f>0.38+15/31/24</f>
+        <f>0.38+$B$29/$B$32/24</f>
         <v>0.40016129032258063</v>
       </c>
       <c r="L18">
-        <f>0.38+15/30/24</f>
+        <f>0.38+$B$29/$B$31/24</f>
         <v>0.40083333333333332</v>
       </c>
       <c r="M18">
-        <f>0.38+15/31/24</f>
+        <f>0.38+$B$29/$B$32/24</f>
         <v>0.40016129032258063</v>
       </c>
     </row>
@@ -1890,11 +1890,11 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:F22" si="9">0.38+15/31/24</f>
+        <f t="shared" ref="B19:F22" si="9">0.38+$B$29/$B$32/24</f>
         <v>0.40016129032258063</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C22" si="10">0.38+15/28/24</f>
+        <f t="shared" ref="C19:C22" si="10">0.38+$B$29/$B$30/24</f>
         <v>0.40232142857142855</v>
       </c>
       <c r="D19">
@@ -1902,7 +1902,7 @@
         <v>0.40016129032258063</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E22" si="11">0.38+15/30/24</f>
+        <f t="shared" ref="E19:E22" si="11">0.38+$B$29/$B$31/24</f>
         <v>0.40083333333333332</v>
       </c>
       <c r="F19">
@@ -1910,31 +1910,31 @@
         <v>0.40016129032258063</v>
       </c>
       <c r="G19">
-        <f>0.61+15/30/24</f>
+        <f t="shared" ref="G19:G22" si="12">0.61+$B$29/$B$31/24</f>
         <v>0.63083333333333336</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:I22" si="12">0.61+$B$29/$B$32/24</f>
+        <f t="shared" ref="H19:I22" si="13">0.61+$B$29/$B$32/24</f>
         <v>0.63016129032258061</v>
       </c>
       <c r="I19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.63016129032258061</v>
       </c>
       <c r="J19">
-        <f>0.61+15/30/24</f>
+        <f t="shared" ref="J19:J22" si="14">0.61+$B$29/$B$31/24</f>
         <v>0.63083333333333336</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:K22" si="13">0.38+15/31/24</f>
+        <f t="shared" ref="K19:K22" si="15">0.38+$B$29/$B$32/24</f>
         <v>0.40016129032258063</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L22" si="14">0.38+15/30/24</f>
+        <f t="shared" ref="L19:L22" si="16">0.38+$B$29/$B$31/24</f>
         <v>0.40083333333333332</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:M22" si="15">0.38+15/31/24</f>
+        <f t="shared" ref="M19:M22" si="17">0.38+$B$29/$B$32/24</f>
         <v>0.40016129032258063</v>
       </c>
     </row>
@@ -1963,31 +1963,31 @@
         <v>0.40016129032258063</v>
       </c>
       <c r="G20">
-        <f>0.61+15/30/24</f>
+        <f t="shared" si="12"/>
         <v>0.63083333333333336</v>
       </c>
       <c r="H20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.63016129032258061</v>
       </c>
       <c r="I20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.63016129032258061</v>
       </c>
       <c r="J20">
-        <f>0.61+15/30/24</f>
+        <f t="shared" si="14"/>
         <v>0.63083333333333336</v>
       </c>
       <c r="K20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40016129032258063</v>
       </c>
       <c r="L20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.40083333333333332</v>
       </c>
       <c r="M20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.40016129032258063</v>
       </c>
     </row>
@@ -2016,31 +2016,31 @@
         <v>0.40016129032258063</v>
       </c>
       <c r="G21">
-        <f>0.61+15/30/24</f>
+        <f t="shared" si="12"/>
         <v>0.63083333333333336</v>
       </c>
       <c r="H21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.63016129032258061</v>
       </c>
       <c r="I21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.63016129032258061</v>
       </c>
       <c r="J21">
-        <f>0.61+15/30/24</f>
+        <f t="shared" si="14"/>
         <v>0.63083333333333336</v>
       </c>
       <c r="K21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40016129032258063</v>
       </c>
       <c r="L21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.40083333333333332</v>
       </c>
       <c r="M21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.40016129032258063</v>
       </c>
     </row>
@@ -2069,31 +2069,31 @@
         <v>0.40016129032258063</v>
       </c>
       <c r="G22">
-        <f>0.61+15/30/24</f>
+        <f t="shared" si="12"/>
         <v>0.63083333333333336</v>
       </c>
       <c r="H22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.63016129032258061</v>
       </c>
       <c r="I22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.63016129032258061</v>
       </c>
       <c r="J22">
-        <f>0.61+15/30/24</f>
+        <f t="shared" si="14"/>
         <v>0.63083333333333336</v>
       </c>
       <c r="K22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40016129032258063</v>
       </c>
       <c r="L22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.40083333333333332</v>
       </c>
       <c r="M22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.40016129032258063</v>
       </c>
     </row>
@@ -2102,51 +2102,51 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="C23">
-        <f>0.36+15/28/24</f>
+        <f>0.36+$B$29/$B$30/24</f>
         <v>0.38232142857142853</v>
       </c>
       <c r="D23">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="E23">
-        <f>0.36+15/30/24</f>
+        <f>0.36+$B$29/$B$31/24</f>
         <v>0.3808333333333333</v>
       </c>
       <c r="F23">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="G23">
-        <f>0.45+15/30/24</f>
+        <f>0.45+$B$29/$B$31/24</f>
         <v>0.47083333333333333</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:I25" si="16">0.45+$B$29/$B$32/24</f>
+        <f t="shared" ref="H23:I25" si="18">0.45+$B$29/$B$32/24</f>
         <v>0.47016129032258064</v>
       </c>
       <c r="I23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.47016129032258064</v>
       </c>
       <c r="J23">
-        <f>0.45+15/30/24</f>
+        <f>0.45+$B$29/$B$31/24</f>
         <v>0.47083333333333333</v>
       </c>
       <c r="K23">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="L23">
-        <f>0.36+15/30/24</f>
+        <f>0.36+$B$29/$B$31/24</f>
         <v>0.3808333333333333</v>
       </c>
       <c r="M23">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
     </row>
@@ -2155,51 +2155,51 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="C24">
-        <f>0.36+15/28/24</f>
+        <f t="shared" ref="C24:C25" si="19">0.36+$B$29/$B$30/24</f>
         <v>0.38232142857142853</v>
       </c>
       <c r="D24">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="E24">
-        <f>0.36+15/30/24</f>
+        <f t="shared" ref="E24:E25" si="20">0.36+$B$29/$B$31/24</f>
         <v>0.3808333333333333</v>
       </c>
       <c r="F24">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="G24">
-        <f>0.45+15/30/24</f>
+        <f t="shared" ref="G24:G25" si="21">0.45+$B$29/$B$31/24</f>
         <v>0.47083333333333333</v>
       </c>
       <c r="H24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.47016129032258064</v>
       </c>
       <c r="I24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.47016129032258064</v>
       </c>
       <c r="J24">
-        <f>0.45+15/30/24</f>
+        <f t="shared" ref="J24:J25" si="22">0.45+$B$29/$B$31/24</f>
         <v>0.47083333333333333</v>
       </c>
       <c r="K24">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="L24">
-        <f>0.36+15/30/24</f>
+        <f t="shared" ref="L24:L25" si="23">0.36+$B$29/$B$31/24</f>
         <v>0.3808333333333333</v>
       </c>
       <c r="M24">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
     </row>
@@ -2208,51 +2208,51 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="C25">
-        <f>0.36+15/28/24</f>
+        <f t="shared" si="19"/>
         <v>0.38232142857142853</v>
       </c>
       <c r="D25">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="E25">
-        <f>0.36+15/30/24</f>
+        <f t="shared" si="20"/>
         <v>0.3808333333333333</v>
       </c>
       <c r="F25">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="G25">
-        <f>0.45+15/30/24</f>
+        <f t="shared" si="21"/>
         <v>0.47083333333333333</v>
       </c>
       <c r="H25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.47016129032258064</v>
       </c>
       <c r="I25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.47016129032258064</v>
       </c>
       <c r="J25">
-        <f>0.45+15/30/24</f>
+        <f t="shared" si="22"/>
         <v>0.47083333333333333</v>
       </c>
       <c r="K25">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
       <c r="L25">
-        <f>0.36+15/30/24</f>
+        <f t="shared" si="23"/>
         <v>0.3808333333333333</v>
       </c>
       <c r="M25">
-        <f>0.36+15/31/24</f>
+        <f>0.36+$B$29/$B$32/24</f>
         <v>0.38016129032258061</v>
       </c>
     </row>
